--- a/output/CARIN-BB-Coverage.xlsx
+++ b/output/CARIN-BB-Coverage.xlsx
@@ -766,21 +766,21 @@
     <t>group</t>
   </si>
   <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://terminology.hl7.org/CodeSystem/coverage-class"/&gt;
-  &lt;code value="group"/&gt;
-  &lt;display value="Group"/&gt;
-&lt;/valueCoding&gt;</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;code value="group"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>plan</t>
   </si>
   <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://terminology.hl7.org/CodeSystem/coverage-class"/&gt;
-  &lt;code value="plan"/&gt;
-  &lt;display value="Plan"/&gt;
-&lt;/valueCoding&gt;</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;code value="plan"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Coverage.order</t>
